--- a/testFile/case/userCase.xlsx
+++ b/testFile/case/userCase.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\interfaceTest\testFile\case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\pycharm\interfaceTest_shoolpal\testFile\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/testFile/case/userCase.xlsx
+++ b/testFile/case/userCase.xlsx
@@ -5,21 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\pycharm\interfaceTest_shoolpal\testFile\case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\interfaceTest_shoolpal\testFile\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="9930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="7" r:id="rId1"/>
+    <sheet name="login" sheetId="8" r:id="rId2"/>
+    <sheet name="user" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>case_name</t>
   </si>
@@ -66,6 +68,14 @@
   </si>
   <si>
     <t>pageSize</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>getuserinfo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +456,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -509,11 +519,170 @@
       <c r="F2" s="5">
         <v>1</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="14.75" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
